--- a/myFiles/技术部员工工作周报_廖彦.xlsx
+++ b/myFiles/技术部员工工作周报_廖彦.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>本月数据统计</t>
   </si>
@@ -222,7 +222,7 @@
     <t>本月工作重点</t>
   </si>
   <si>
-    <t>第一周工作重点</t>
+    <t>第六周工作重点</t>
   </si>
   <si>
     <t>周次</t>
@@ -246,7 +246,7 @@
     <t>解决方案</t>
   </si>
   <si>
-    <t>第一周</t>
+    <t>第六周</t>
   </si>
   <si>
     <t>星期一</t>
@@ -279,7 +279,7 @@
     <t>58班开班，上Java基础：概述</t>
   </si>
   <si>
-    <t>第一周基础信息</t>
+    <t>第六周基础信息</t>
   </si>
   <si>
     <t>授课情况</t>
@@ -360,10 +360,10 @@
     <t>上课情况</t>
   </si>
   <si>
-    <t>第二周工作重点</t>
-  </si>
-  <si>
-    <t>第二周</t>
+    <t>第七周工作重点</t>
+  </si>
+  <si>
+    <t>第七周</t>
   </si>
   <si>
     <t>备Java基础课</t>
@@ -393,37 +393,67 @@
     <t>控制讲授时间，让学生多练</t>
   </si>
   <si>
-    <t>第二周基础信息</t>
-  </si>
-  <si>
-    <t>第三周工作重点</t>
-  </si>
-  <si>
-    <t>第三周</t>
+    <t>第七周基础信息</t>
+  </si>
+  <si>
+    <t>第八周工作重点</t>
+  </si>
+  <si>
+    <t>第八周</t>
+  </si>
+  <si>
+    <t>58班上Java基础</t>
   </si>
   <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>第三周基础信息</t>
-  </si>
-  <si>
-    <t>第四周工作重点</t>
-  </si>
-  <si>
-    <t>第四周</t>
-  </si>
-  <si>
-    <t>第四周基础信息</t>
-  </si>
-  <si>
-    <t>第五周工作重点</t>
-  </si>
-  <si>
-    <t>第五周</t>
-  </si>
-  <si>
-    <t>第五周基础信息</t>
+    <t>说的多，无重点</t>
+  </si>
+  <si>
+    <t>多提炼知识点的要点</t>
+  </si>
+  <si>
+    <t>54班上Java基础</t>
+  </si>
+  <si>
+    <t>有些技术细节掌握不牢，上课应变能力有待提高</t>
+  </si>
+  <si>
+    <t>备课上还要多下功夫</t>
+  </si>
+  <si>
+    <t>54班上Java基础；46班上Servlet</t>
+  </si>
+  <si>
+    <t>上课有时会啰嗦，其实是不自信的表现</t>
+  </si>
+  <si>
+    <t>多备课，多听课，多做案例</t>
+  </si>
+  <si>
+    <t>54班上Java基础；46班上Servlet；58班上Java基础</t>
+  </si>
+  <si>
+    <t>第八周基础信息</t>
+  </si>
+  <si>
+    <t>第九周工作重点</t>
+  </si>
+  <si>
+    <t>第九周</t>
+  </si>
+  <si>
+    <t>第九周基础信息</t>
+  </si>
+  <si>
+    <t>第十周工作重点</t>
+  </si>
+  <si>
+    <t>第十周</t>
+  </si>
+  <si>
+    <t>第十周基础信息</t>
   </si>
 </sst>
 </file>
@@ -432,8 +462,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -473,16 +503,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,12 +514,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,30 +547,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,9 +562,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,26 +578,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,14 +601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -625,9 +611,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -652,19 +682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +712,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,49 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,25 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,55 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,41 +1040,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1075,6 +1070,59 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1088,165 +1136,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1805,8 +1835,8 @@
   <sheetPr/>
   <dimension ref="A1:P179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54:M56"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1855,7 +1885,7 @@
       </c>
       <c r="C2" s="3">
         <f>SUM(E35+E69+E103+E137+E171)</f>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -1909,7 +1939,7 @@
       </c>
       <c r="C3" s="3">
         <f>SUM(E36+E70+E104+E138+E172)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1923,7 +1953,7 @@
       </c>
       <c r="G3" s="3">
         <f>SUM(E37+E71+E105+E139+E173)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -3592,13 +3622,17 @@
         <v>33</v>
       </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="24"/>
+      <c r="D82" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
-      <c r="J82" s="22"/>
+      <c r="J82" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
@@ -3652,7 +3686,7 @@
       <c r="H85" s="26"/>
       <c r="I85" s="38"/>
       <c r="J85" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K85" s="37"/>
       <c r="L85" s="37"/>
@@ -3664,7 +3698,9 @@
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="27"/>
+      <c r="D86" s="27" t="s">
+        <v>84</v>
+      </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
@@ -3759,18 +3795,26 @@
       <c r="G91" s="32"/>
       <c r="H91" s="32"/>
       <c r="I91" s="41"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="37"/>
+      <c r="J91" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K91" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="L91" s="37"/>
       <c r="M91" s="37"/>
-      <c r="N91" s="22"/>
+      <c r="N91" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="O91" s="22"/>
     </row>
     <row r="92" ht="17.25" customHeight="1" spans="1:15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="33"/>
+      <c r="D92" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="E92" s="34"/>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
@@ -3812,7 +3856,9 @@
       <c r="G94" s="32"/>
       <c r="H94" s="32"/>
       <c r="I94" s="41"/>
-      <c r="J94" s="22"/>
+      <c r="J94" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="K94" s="37"/>
       <c r="L94" s="37"/>
       <c r="M94" s="37"/>
@@ -3823,7 +3869,9 @@
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="33"/>
+      <c r="D95" s="33" t="s">
+        <v>88</v>
+      </c>
       <c r="E95" s="34"/>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
@@ -3865,18 +3913,26 @@
       <c r="G97" s="32"/>
       <c r="H97" s="32"/>
       <c r="I97" s="41"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="37"/>
+      <c r="J97" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K97" s="37" t="s">
+        <v>89</v>
+      </c>
       <c r="L97" s="37"/>
       <c r="M97" s="37"/>
-      <c r="N97" s="22"/>
+      <c r="N97" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="O97" s="22"/>
     </row>
     <row r="98" ht="17.25" customHeight="1" spans="1:15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="33"/>
+      <c r="D98" s="33" t="s">
+        <v>91</v>
+      </c>
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -3918,18 +3974,26 @@
       <c r="G100" s="32"/>
       <c r="H100" s="32"/>
       <c r="I100" s="41"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="37"/>
+      <c r="J100" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K100" s="37" t="s">
+        <v>92</v>
+      </c>
       <c r="L100" s="37"/>
       <c r="M100" s="37"/>
-      <c r="N100" s="22"/>
+      <c r="N100" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="O100" s="22"/>
     </row>
     <row r="101" ht="17.25" customHeight="1" spans="1:15">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="33"/>
+      <c r="D101" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="E101" s="34"/>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
@@ -3961,7 +4025,7 @@
     </row>
     <row r="103" ht="25.5" customHeight="1" spans="1:15">
       <c r="A103" s="11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>44</v>
@@ -3972,7 +4036,9 @@
       <c r="D103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="3"/>
+      <c r="E103" s="3">
+        <v>40</v>
+      </c>
       <c r="F103" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,7 +4065,9 @@
       <c r="D104" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3">
+        <v>6</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>49</v>
       </c>
@@ -4026,7 +4094,9 @@
       <c r="D105" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="3"/>
+      <c r="E105" s="3">
+        <v>6</v>
+      </c>
       <c r="F105" s="3" t="s">
         <v>53</v>
       </c>
@@ -4190,7 +4260,7 @@
     </row>
     <row r="112" ht="25.5" customHeight="1" spans="1:15">
       <c r="A112" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4274,7 +4344,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>33</v>
@@ -4647,7 +4717,7 @@
     </row>
     <row r="137" ht="22.5" customHeight="1" spans="1:15">
       <c r="A137" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>44</v>
@@ -4876,7 +4946,7 @@
     </row>
     <row r="146" ht="25.5" customHeight="1" spans="1:15">
       <c r="A146" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -4960,7 +5030,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="8" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>33</v>
@@ -5333,7 +5403,7 @@
     </row>
     <row r="171" ht="25.5" customHeight="1" spans="1:15">
       <c r="A171" s="11" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>44</v>

--- a/myFiles/技术部员工工作周报_廖彦.xlsx
+++ b/myFiles/技术部员工工作周报_廖彦.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="8520" tabRatio="500"/>
+    <workbookView windowWidth="20295" windowHeight="8100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="月份周报" sheetId="19" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>本月数据统计</t>
   </si>
@@ -442,6 +442,57 @@
   </si>
   <si>
     <t>第九周</t>
+  </si>
+  <si>
+    <t>54班Java基础，讲基本语法</t>
+  </si>
+  <si>
+    <t>58班oop，内容是面向对象编程介绍和类的封装</t>
+  </si>
+  <si>
+    <t>课堂的案例使用有问题，银行存款的例子学生理解有困难</t>
+  </si>
+  <si>
+    <t>应该先将结婚的例子</t>
+  </si>
+  <si>
+    <t>案例代码增加较多，学生接受困难</t>
+  </si>
+  <si>
+    <t>逐步提升代码量</t>
+  </si>
+  <si>
+    <t>上46班Servlet，讲EL表达式和JSTL</t>
+  </si>
+  <si>
+    <t>58班oop，做oop项目</t>
+  </si>
+  <si>
+    <t>学生对oop理解有困难</t>
+  </si>
+  <si>
+    <t>课后在群里做一些习题的讲解，并且再安排一些作业</t>
+  </si>
+  <si>
+    <t>上54班Java基础，做日历的项目</t>
+  </si>
+  <si>
+    <t>带物联网班实训，上46班Servlet，讲过滤器和监听器</t>
+  </si>
+  <si>
+    <t>监听器没讲完</t>
+  </si>
+  <si>
+    <t>下次课讲，课堂进度把握要控制好</t>
+  </si>
+  <si>
+    <t>上54班OOP，做扑克的项目、面向对象编程介绍和类的封装；46班的自定义标签</t>
+  </si>
+  <si>
+    <t>自定义标签的分页标签没讲完</t>
+  </si>
+  <si>
+    <t>下次课结合项目讲下分页标签的使用</t>
   </si>
   <si>
     <t>第九周基础信息</t>
@@ -462,9 +513,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -503,9 +554,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,23 +597,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,6 +611,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -570,9 +643,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,78 +704,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -682,7 +733,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,19 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,19 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,19 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,85 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,17 +1090,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,36 +1126,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,11 +1149,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,147 +1178,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1835,8 +1886,8 @@
   <sheetPr/>
   <dimension ref="A1:P179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1885,7 +1936,7 @@
       </c>
       <c r="C2" s="3">
         <f>SUM(E35+E69+E103+E137+E171)</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1990,7 @@
       </c>
       <c r="C3" s="3">
         <f>SUM(E36+E70+E104+E138+E172)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1953,7 +2004,7 @@
       </c>
       <c r="G3" s="3">
         <f>SUM(E37+E71+E105+E139+E173)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -4350,13 +4401,17 @@
         <v>33</v>
       </c>
       <c r="C116" s="9"/>
-      <c r="D116" s="25"/>
+      <c r="D116" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="E116" s="26"/>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
       <c r="H116" s="26"/>
       <c r="I116" s="38"/>
-      <c r="J116" s="22"/>
+      <c r="J116" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="K116" s="22"/>
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
@@ -4403,17 +4458,25 @@
         <v>34</v>
       </c>
       <c r="C119" s="9"/>
-      <c r="D119" s="25"/>
+      <c r="D119" s="25" t="s">
+        <v>99</v>
+      </c>
       <c r="E119" s="26"/>
       <c r="F119" s="26"/>
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
       <c r="I119" s="38"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="22"/>
+      <c r="J119" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
+      <c r="N119" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="O119" s="22"/>
     </row>
     <row r="120" spans="1:15">
@@ -4462,18 +4525,26 @@
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
       <c r="I122" s="38"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="22"/>
+      <c r="J122" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K122" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
-      <c r="N122" s="22"/>
+      <c r="N122" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="O122" s="22"/>
     </row>
     <row r="123" ht="16.5" spans="1:15">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="27"/>
+      <c r="D123" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
       <c r="G123" s="28"/>
@@ -4509,17 +4580,25 @@
         <v>36</v>
       </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="25"/>
+      <c r="D125" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="E125" s="26"/>
       <c r="F125" s="26"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
       <c r="I125" s="38"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
+      <c r="J125" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K125" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
-      <c r="N125" s="22"/>
+      <c r="N125" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="O125" s="22"/>
     </row>
     <row r="126" spans="1:15">
@@ -4562,13 +4641,17 @@
         <v>37</v>
       </c>
       <c r="C128" s="9"/>
-      <c r="D128" s="25"/>
+      <c r="D128" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="E128" s="26"/>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
       <c r="H128" s="26"/>
       <c r="I128" s="38"/>
-      <c r="J128" s="22"/>
+      <c r="J128" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
@@ -4615,17 +4698,25 @@
         <v>38</v>
       </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="25"/>
+      <c r="D131" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="E131" s="26"/>
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
       <c r="H131" s="26"/>
       <c r="I131" s="38"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="37"/>
+      <c r="J131" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K131" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="L131" s="37"/>
       <c r="M131" s="37"/>
-      <c r="N131" s="22"/>
+      <c r="N131" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="O131" s="22"/>
     </row>
     <row r="132" spans="1:15">
@@ -4668,17 +4759,25 @@
         <v>41</v>
       </c>
       <c r="C134" s="9"/>
-      <c r="D134" s="25"/>
+      <c r="D134" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="E134" s="26"/>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
       <c r="H134" s="26"/>
       <c r="I134" s="38"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="22"/>
+      <c r="J134" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K134" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
+      <c r="N134" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="O134" s="22"/>
     </row>
     <row r="135" spans="1:15">
@@ -4717,7 +4816,7 @@
     </row>
     <row r="137" ht="22.5" customHeight="1" spans="1:15">
       <c r="A137" s="11" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>44</v>
@@ -4728,7 +4827,9 @@
       <c r="D137" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E137" s="3"/>
+      <c r="E137" s="3">
+        <v>40</v>
+      </c>
       <c r="F137" s="3" t="s">
         <v>3</v>
       </c>
@@ -4755,7 +4856,9 @@
       <c r="D138" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E138" s="3"/>
+      <c r="E138" s="3">
+        <v>5</v>
+      </c>
       <c r="F138" s="3" t="s">
         <v>49</v>
       </c>
@@ -4782,7 +4885,9 @@
       <c r="D139" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E139" s="3"/>
+      <c r="E139" s="3">
+        <v>3</v>
+      </c>
       <c r="F139" s="3" t="s">
         <v>53</v>
       </c>
@@ -4946,7 +5051,7 @@
     </row>
     <row r="146" ht="25.5" customHeight="1" spans="1:15">
       <c r="A146" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -5030,7 +5135,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>33</v>
@@ -5403,7 +5508,7 @@
     </row>
     <row r="171" ht="25.5" customHeight="1" spans="1:15">
       <c r="A171" s="11" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>44</v>
